--- a/data/processed/hyalophane_StA/calczaf_files/calczaf_oxides_summary.xlsx
+++ b/data/processed/hyalophane_StA/calczaf_files/calczaf_oxides_summary.xlsx
@@ -553,10 +553,10 @@
         <v>1.518</v>
       </c>
       <c r="G3">
-        <v>0.053</v>
+        <v>0.047</v>
       </c>
       <c r="H3">
-        <v>0.292</v>
+        <v>0.256</v>
       </c>
       <c r="I3">
         <v>0.403</v>
@@ -565,7 +565,7 @@
         <v>20.586</v>
       </c>
       <c r="K3">
-        <v>100.367</v>
+        <v>100.325</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -588,10 +588,10 @@
         <v>1.518</v>
       </c>
       <c r="G4">
-        <v>0.056</v>
+        <v>0.049</v>
       </c>
       <c r="H4">
-        <v>0.304</v>
+        <v>0.269</v>
       </c>
       <c r="I4">
         <v>0.403</v>
@@ -600,7 +600,7 @@
         <v>20.586</v>
       </c>
       <c r="K4">
-        <v>100.381</v>
+        <v>100.34</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -658,10 +658,10 @@
         <v>1.518</v>
       </c>
       <c r="G6">
-        <v>0.054</v>
+        <v>0.055</v>
       </c>
       <c r="H6">
-        <v>0.296</v>
+        <v>0.302</v>
       </c>
       <c r="I6">
         <v>0.403</v>
@@ -670,7 +670,7 @@
         <v>20.586</v>
       </c>
       <c r="K6">
-        <v>100.372</v>
+        <v>100.379</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -696,7 +696,7 @@
         <v>0.066</v>
       </c>
       <c r="H7">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="I7">
         <v>0.403</v>
@@ -705,7 +705,7 @@
         <v>20.586</v>
       </c>
       <c r="K7">
-        <v>100.45</v>
+        <v>100.447</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +811,7 @@
         <v>0.005</v>
       </c>
       <c r="H3">
-        <v>0.029</v>
+        <v>0.025</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.034</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -846,7 +846,7 @@
         <v>0.005</v>
       </c>
       <c r="H4">
-        <v>0.03</v>
+        <v>0.026</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.035</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -916,7 +916,7 @@
         <v>0.002</v>
       </c>
       <c r="H6">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -951,7 +951,7 @@
         <v>0.003</v>
       </c>
       <c r="H7">
-        <v>0.017</v>
+        <v>0.015</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
     </row>
   </sheetData>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.053</v>
+        <v>0.047</v>
       </c>
       <c r="I3">
         <v>0.005</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.292</v>
+        <v>0.256</v>
       </c>
       <c r="M3">
-        <v>0.029</v>
+        <v>0.025</v>
       </c>
       <c r="N3">
         <v>1.518</v>
@@ -1171,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>100.367</v>
+        <v>100.325</v>
       </c>
       <c r="U3">
-        <v>0.034</v>
+        <v>0.03</v>
       </c>
       <c r="V3">
         <v>5</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.056</v>
+        <v>0.049</v>
       </c>
       <c r="I4">
         <v>0.005</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.304</v>
+        <v>0.269</v>
       </c>
       <c r="M4">
-        <v>0.03</v>
+        <v>0.026</v>
       </c>
       <c r="N4">
         <v>1.518</v>
@@ -1239,10 +1239,10 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>100.381</v>
+        <v>100.34</v>
       </c>
       <c r="U4">
-        <v>0.035</v>
+        <v>0.031</v>
       </c>
       <c r="V4">
         <v>5</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.054</v>
+        <v>0.055</v>
       </c>
       <c r="I6">
         <v>0.002</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.296</v>
+        <v>0.302</v>
       </c>
       <c r="M6">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="N6">
         <v>1.518</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>100.372</v>
+        <v>100.379</v>
       </c>
       <c r="U6">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="V6">
         <v>5</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="M7">
-        <v>0.017</v>
+        <v>0.015</v>
       </c>
       <c r="N7">
         <v>1.518</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>100.45</v>
+        <v>100.447</v>
       </c>
       <c r="U7">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
       <c r="V7">
         <v>5</v>
